--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1819.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1819.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.251771884584033</v>
+        <v>1.009891629219055</v>
       </c>
       <c r="B1">
-        <v>2.23017639113925</v>
+        <v>1.088564276695251</v>
       </c>
       <c r="C1">
-        <v>2.830806631815073</v>
+        <v>5.438004493713379</v>
       </c>
       <c r="D1">
-        <v>3.278763743052063</v>
+        <v>1.611319541931152</v>
       </c>
       <c r="E1">
-        <v>2.125978371570048</v>
+        <v>0.981880247592926</v>
       </c>
     </row>
   </sheetData>
